--- a/biology/Médecine/Jean_De_Boeck/Jean_De_Boeck.xlsx
+++ b/biology/Médecine/Jean_De_Boeck/Jean_De_Boeck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean De Boeck, né en 1863 et mort en 1913, est un psychiatre belge.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médecin ayant fait sa formation à l'université libre de Bruxelles et à l'université de Leipzig, il est nommé professeur de psychiatrie et de médecine légale à l'université libre de Bruxelles en 1904. Il s'intéresse essentiellement à l'anthropologie criminelle et aux prisons-asiles[1].
-Il serait le premier à avoir parlé de Freud en Belgique en 1893 dans un compte-rendu de la Communication préliminaire[2],[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médecin ayant fait sa formation à l'université libre de Bruxelles et à l'université de Leipzig, il est nommé professeur de psychiatrie et de médecine légale à l'université libre de Bruxelles en 1904. Il s'intéresse essentiellement à l'anthropologie criminelle et aux prisons-asiles.
+Il serait le premier à avoir parlé de Freud en Belgique en 1893 dans un compte-rendu de la Communication préliminaire,. 
 </t>
         </is>
       </c>
